--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="4"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>Correct</t>
   </si>
@@ -259,22 +259,16 @@
     <t>Then use a z-score calculator to find the z-score associated with that probability (should be between 1.0 and 4.0)</t>
   </si>
   <si>
-    <t>Imagine you measure the torque on motor shaft, and find it has a mean value of 123.0 Nm with a standard deviation of 6.0 Nm.   One of the 8 readings has a value of 108.0 Nm.   Is this an outlier?</t>
-  </si>
-  <si>
     <t>Imagine you measure the torque on motor shaft, and find it has a mean value of 123.0 Nm with a standard deviation of 6.0 Nm.   One of the 8 readings has a value of 108.0 Nm.  What is the z-score of this data point?  Estimate this in your head before you use a calculator.</t>
   </si>
   <si>
     <t>Imagine you measure the torque on motor shaft, and find it has a mean value of 123.0 Nm with a standard deviation of 6.0 Nm.   One of the 8 readings has a value of 108.0 Nm. Use Chauvenet's criterion to determine the acceptable variance z_acc.</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>The z_score for the data point is larger than the acceptable variance z_acc.  So the point is an outlier, and should be removed from the data set.</t>
+  </si>
+  <si>
+    <t>Imagine you measure the torque on motor shaft, and find it has a mean value of 123.0 Nm with a standard deviation of 6.0 Nm.   One of the 8 readings has a value of 108.0 Nm.   True or False: This data point is an outlier.</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1252,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1332,7 +1326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1344,7 +1340,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1390,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,9 +1398,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1413,24 +1409,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="3"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>Correct</t>
   </si>
@@ -265,10 +265,58 @@
     <t>Imagine you measure the torque on motor shaft, and find it has a mean value of 123.0 Nm with a standard deviation of 6.0 Nm.   One of the 8 readings has a value of 108.0 Nm. Use Chauvenet's criterion to determine the acceptable variance z_acc.</t>
   </si>
   <si>
-    <t>The z_score for the data point is larger than the acceptable variance z_acc.  So the point is an outlier, and should be removed from the data set.</t>
-  </si>
-  <si>
     <t>Imagine you measure the torque on motor shaft, and find it has a mean value of 123.0 Nm with a standard deviation of 6.0 Nm.   One of the 8 readings has a value of 108.0 Nm.   True or False: This data point is an outlier.</t>
+  </si>
+  <si>
+    <t>The z_score for the data point (2.5) is larger than the acceptable variance z_acc.  So the point is an outlier, and should be removed from the data set.</t>
+  </si>
+  <si>
+    <t>Did you combine both Ns?</t>
+  </si>
+  <si>
+    <t>Did you subtract by 2 to get degrees of freedom?</t>
+  </si>
+  <si>
+    <t>Use a t-score calculator to find t_acc.</t>
+  </si>
+  <si>
+    <t>Remember to divide the SDs by square root of M to get the SDM</t>
+  </si>
+  <si>
+    <t>Remember to combine the two SDMs in quadrature to get the combined SDM</t>
+  </si>
+  <si>
+    <t>How many SDMs apart are the two mean values?</t>
+  </si>
+  <si>
+    <t>Knowing t_acc and t_0, what can we say about these data sets?</t>
+  </si>
+  <si>
+    <t>We are 95% confident that the difference between the two sets is a result of random chance</t>
+  </si>
+  <si>
+    <t>We are 95% confident that the difference between the two sets is not a result of random chance</t>
+  </si>
+  <si>
+    <t>We are not 95% confident that the difference is a result of random chance</t>
+  </si>
+  <si>
+    <t>Since t_0 &gt; t_acc, we can say confidently that there is something qualitatively different between the two sets.</t>
+  </si>
+  <si>
+    <t>If t_0 &lt; t_acc, this would be the case.</t>
+  </si>
+  <si>
+    <t>This is a misstatement of the results of a t-test: a t-test will demonstrate either B or C , but not this statement.</t>
+  </si>
+  <si>
+    <t>What is the t-score for these two data sets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the combined SDM for these data sets?</t>
+  </si>
+  <si>
+    <t>What is t_acc with an alpha = 0.5?</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1448,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1411,13 +1459,13 @@
     </row>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1493,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B15" sqref="B15:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1505,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1466,32 +1516,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.05</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,8 +1554,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.1198</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,8 +1680,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1523,148 +1691,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -313,10 +313,10 @@
     <t>What is the t-score for these two data sets?</t>
   </si>
   <si>
-    <t xml:space="preserve"> What is the combined SDM for these data sets?</t>
-  </si>
-  <si>
-    <t>What is t_acc with an alpha = 0.5?</t>
+    <t xml:space="preserve"> What is the combined standard deviation of the mean for these data sets?</t>
+  </si>
+  <si>
+    <t>What is t_acceptable for these two data sets, with an alpha = 0.5?</t>
   </si>
 </sst>
 </file>
@@ -1492,9 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1504,7 +1502,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>88</v>
       </c>
@@ -1564,7 +1562,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
@@ -1668,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_e_Embedded_Qs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A856116-8092-4040-8C81-BC3549D9D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="4"/>
+    <workbookView xWindow="4530" yWindow="2025" windowWidth="19005" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -34,17 +35,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -316,13 +306,13 @@
     <t xml:space="preserve"> What is the combined standard deviation of the mean for these data sets?</t>
   </si>
   <si>
-    <t>What is t_acceptable for these two data sets, with an alpha = 0.5?</t>
+    <t>What is t_acceptable for these two data sets, with an alpha = 0.05?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,11 +684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -824,7 +814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -882,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -958,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1045,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1107,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1209,7 +1199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1285,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1371,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1431,7 +1421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1489,10 +1479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1549,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1607,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1663,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1733,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
